--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>43708</v>
+      </c>
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
-        <v>31100</v>
-      </c>
       <c r="G8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E12" s="3">
         <v>14100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13000</v>
       </c>
-      <c r="F12" s="3">
-        <v>45000</v>
-      </c>
       <c r="G12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E17" s="3">
         <v>17400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15400</v>
       </c>
-      <c r="F17" s="3">
-        <v>53400</v>
-      </c>
       <c r="G17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-22300</v>
-      </c>
       <c r="G18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,19 +1042,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>800</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1029,46 +1063,52 @@
       <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-19100</v>
-      </c>
       <c r="G21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-21500</v>
-      </c>
       <c r="G23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-20600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E26" s="3">
         <v>7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-21700</v>
-      </c>
       <c r="G26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-21700</v>
-      </c>
       <c r="G27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,19 +1424,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-800</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1377,46 +1447,52 @@
       <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-21700</v>
-      </c>
       <c r="G33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-21700</v>
-      </c>
       <c r="G35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>43708</v>
+      </c>
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1619,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E41" s="3">
         <v>159200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,20 +1649,23 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E42" s="3">
         <v>14200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>19600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,20 +1745,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,20 +1777,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>364100</v>
+      </c>
+      <c r="E46" s="3">
         <v>196800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76700</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,20 +1809,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E47" s="3">
         <v>9100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,20 +1841,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +1969,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2033,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>411900</v>
+      </c>
+      <c r="E54" s="3">
         <v>213300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,20 +2095,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,20 +2157,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E59" s="3">
         <v>29500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,20 +2189,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E60" s="3">
         <v>34400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,20 +2253,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E62" s="3">
         <v>72300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,20 +2381,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E66" s="3">
         <v>106700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,20 +2491,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>168100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>48200</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,20 +2555,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,20 +2683,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-61500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-69800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>43708</v>
+      </c>
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-21700</v>
-      </c>
       <c r="G81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41000</v>
       </c>
-      <c r="F89" s="3">
-        <v>600</v>
-      </c>
       <c r="G89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>36400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1700</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19400</v>
       </c>
-      <c r="F94" s="3">
-        <v>8500</v>
-      </c>
       <c r="G94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I94" s="3">
         <v>10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E100" s="3">
         <v>119700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E102" s="3">
         <v>102900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21600</v>
       </c>
-      <c r="F102" s="3">
-        <v>9200</v>
-      </c>
       <c r="G102" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>39900</v>
+      </c>
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E12" s="3">
         <v>18900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E17" s="3">
         <v>23300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>15400</v>
       </c>
       <c r="G17" s="3">
         <v>15400</v>
       </c>
       <c r="H17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I17" s="3">
         <v>13200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,22 +1075,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1069,46 +1102,52 @@
       <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>200</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1178,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,31 +1225,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-20600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,22 +1493,25 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1453,46 +1522,52 @@
       <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>-200</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1705,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E41" s="3">
         <v>265400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,23 +1738,26 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E42" s="3">
         <v>88700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1684,20 +1773,23 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,23 +1843,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,23 +1878,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>298400</v>
+      </c>
+      <c r="E46" s="3">
         <v>364100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>196800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,23 +1913,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E47" s="3">
         <v>40900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,23 +1948,26 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2088,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2158,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>396300</v>
+      </c>
+      <c r="E54" s="3">
         <v>411900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>213300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>88800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2225,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,23 +2293,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E59" s="3">
         <v>37400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,23 +2328,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E60" s="3">
         <v>41000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,23 +2398,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E62" s="3">
         <v>63200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>72300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E66" s="3">
         <v>104300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,14 +2670,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>168100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>48200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,23 +2868,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>290300</v>
+      </c>
+      <c r="E76" s="3">
         <v>307600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-61500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-69800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2842,7 +3040,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -2851,7 +3049,7 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -2859,14 +3057,17 @@
       <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>600</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>220400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>119700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E102" s="3">
         <v>106200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>102900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>20400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E17" s="3">
         <v>26700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>15400</v>
       </c>
       <c r="H17" s="3">
         <v>15400</v>
       </c>
       <c r="I17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J17" s="3">
         <v>13200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,25 +1109,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1105,49 +1139,55 @@
       <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>200</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-20600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,25 +1563,28 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1525,49 +1595,55 @@
       <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>-200</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E41" s="3">
         <v>119200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>265400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,26 +1828,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E42" s="3">
         <v>161800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>88700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,23 +1866,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,26 +1942,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>6100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>310800</v>
+      </c>
+      <c r="E46" s="3">
         <v>298400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>364100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>196800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>76700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,26 +2018,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E47" s="3">
         <v>90900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>40900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,26 +2056,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>396700</v>
+      </c>
+      <c r="E54" s="3">
         <v>396300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>411900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>213300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>88800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E59" s="3">
         <v>41100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E60" s="3">
         <v>44500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E62" s="3">
         <v>61500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>72300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E66" s="3">
         <v>106100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>104300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2673,14 +2841,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>168100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>48200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-103700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>270100</v>
+      </c>
+      <c r="E76" s="3">
         <v>290300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>307600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-61500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-69800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,7 +3242,7 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -3052,7 +3251,7 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -3060,14 +3259,17 @@
       <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>600</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>41000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-124600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-108100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>220400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>119700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-146200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>106200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>102900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E17" s="3">
         <v>29500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>15400</v>
       </c>
       <c r="I17" s="3">
         <v>15400</v>
       </c>
       <c r="J17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,28 +1143,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1142,52 +1176,58 @@
       <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>200</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,37 +1317,40 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-20600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,28 +1633,31 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -1598,52 +1668,58 @@
       <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>-200</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E41" s="3">
         <v>126400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>119200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>265400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>159200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,29 +1918,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E42" s="3">
         <v>176700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>161800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>88700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,26 +1959,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>396300</v>
+      </c>
+      <c r="E46" s="3">
         <v>310800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>298400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>364100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>196800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>76700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,29 +2123,32 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E47" s="3">
         <v>77200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>90900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>40900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E54" s="3">
         <v>396700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>396300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>411900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>213300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>88800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E59" s="3">
         <v>43600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E60" s="3">
         <v>48000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E62" s="3">
         <v>78600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E66" s="3">
         <v>126500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,14 +3012,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>168100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>48200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-128000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-103700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E76" s="3">
         <v>270100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>290300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>307600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-61500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-69800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,7 +3444,7 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -3254,7 +3453,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -3262,14 +3461,17 @@
       <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>600</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E89" s="3">
         <v>8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-124600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>220400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>119700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-146200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>106200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>102900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,118 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E8" s="3">
         <v>7100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E17" s="3">
         <v>33500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>15400</v>
       </c>
       <c r="J17" s="3">
         <v>15400</v>
       </c>
       <c r="K17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="L17" s="3">
         <v>13200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,31 +1177,32 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1179,55 +1213,61 @@
       <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>200</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-20600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,31 +1703,34 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -1671,55 +1741,61 @@
       <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>-200</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E41" s="3">
         <v>188200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>119200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>265400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,32 +2008,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E42" s="3">
         <v>197800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>176700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>161800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,32 +2140,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>358400</v>
+      </c>
+      <c r="E46" s="3">
         <v>396300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>310800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>298400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>364100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>196800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>76700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,32 +2228,35 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E47" s="3">
         <v>110400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>77200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>90900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>40900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,32 +2272,35 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2448,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>493100</v>
+      </c>
+      <c r="E54" s="3">
         <v>518000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>396700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>396300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>411900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>213300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>88800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2618,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,32 +2704,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E59" s="3">
         <v>41400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E60" s="3">
         <v>46800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E62" s="3">
         <v>73000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E66" s="3">
         <v>119800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>126500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,14 +3183,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>168100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>48200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-154400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-128000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-103700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-65300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>375200</v>
+      </c>
+      <c r="E76" s="3">
         <v>398200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>270100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>290300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>307600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-61500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-69800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,13 +3627,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -3447,7 +3646,7 @@
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -3456,7 +3655,7 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>600</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-124600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>150500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>220400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>119700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E102" s="3">
         <v>61800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-146200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>106200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>102900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E12" s="3">
         <v>30900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E17" s="3">
         <v>39200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>15400</v>
       </c>
       <c r="K17" s="3">
         <v>15400</v>
       </c>
       <c r="L17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="M17" s="3">
         <v>13200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,34 +1210,35 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1216,58 +1249,64 @@
       <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>200</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-20600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,34 +1772,37 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -1744,58 +1813,64 @@
       <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>-200</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E41" s="3">
         <v>147400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>119200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>265400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,35 +2097,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E42" s="3">
         <v>196500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>197800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>176700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>161800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,32 +2144,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2238,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>311100</v>
+      </c>
+      <c r="E46" s="3">
         <v>358400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>396300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>310800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>298400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>364100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,35 +2332,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E47" s="3">
         <v>121500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>110400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>77200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>90900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>40900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,35 +2379,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E48" s="3">
         <v>9600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2567,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>476800</v>
+      </c>
+      <c r="E54" s="3">
         <v>493100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>518000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>396700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>396300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>411900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>213300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>88800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E59" s="3">
         <v>46800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E60" s="3">
         <v>50700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E62" s="3">
         <v>67200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>73000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E66" s="3">
         <v>117900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>119800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>168100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>48200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3423,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-220900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-183200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-154400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-128000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-103700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-72800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342300</v>
+      </c>
+      <c r="E76" s="3">
         <v>375200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>398200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>270100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>290300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>307600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-61500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-69800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +3825,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
@@ -3649,7 +3847,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3658,7 +3856,7 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
@@ -3666,14 +3864,17 @@
       <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>600</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-124600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>150500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>220400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>119700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>61800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-146200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>106200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>102900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E8" s="3">
         <v>7400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E12" s="3">
         <v>36500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E17" s="3">
         <v>45300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>15400</v>
       </c>
       <c r="L17" s="3">
         <v>15400</v>
       </c>
       <c r="M17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="N17" s="3">
         <v>13200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,37 +1244,38 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -1252,61 +1286,67 @@
       <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>200</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-36900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,46 +1454,49 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-20600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,37 +1842,40 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
@@ -1816,61 +1886,67 @@
       <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>-200</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E41" s="3">
         <v>80200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>147400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>265400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>159200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,38 +2187,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E42" s="3">
         <v>215200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>196500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>197800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>176700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>161800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E46" s="3">
         <v>311100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>358400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>396300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>310800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>298400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>364100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,38 +2437,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E47" s="3">
         <v>137200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>121500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>110400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>90900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>40900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E48" s="3">
         <v>25300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>437700</v>
+      </c>
+      <c r="E54" s="3">
         <v>476800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>493100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>518000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>396700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>396300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>411900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>213300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>88800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E59" s="3">
         <v>59600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E60" s="3">
         <v>66300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E62" s="3">
         <v>68200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>67200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>73000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>78600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E66" s="3">
         <v>134500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>126500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,14 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>168100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>48200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-220900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-183200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-154400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-128000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-103700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E76" s="3">
         <v>342300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>375200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>398200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>270100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>290300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>307600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-61500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-69800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,19 +4024,20 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -3850,7 +4049,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -3859,7 +4058,7 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>600</v>
@@ -3867,14 +4066,17 @@
       <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>600</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-124600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>150500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>220400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>119700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-66900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-146200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>106200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>102900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E12" s="3">
         <v>43100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E17" s="3">
         <v>52400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>15400</v>
       </c>
       <c r="M17" s="3">
         <v>15400</v>
       </c>
       <c r="N17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="O17" s="3">
         <v>13200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,40 +1278,41 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
@@ -1289,64 +1323,70 @@
       <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>200</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-36900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,46 +1503,49 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-20600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,40 +1912,43 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
@@ -1889,64 +1959,70 @@
       <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-200</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E41" s="3">
         <v>77900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>147400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>188200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>265400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>255700</v>
+      </c>
+      <c r="E42" s="3">
         <v>183200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>215200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>196500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>197800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>176700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>161800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>88700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>306800</v>
+      </c>
+      <c r="E46" s="3">
         <v>280500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>311100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>358400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>396300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>310800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>298400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>364100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,41 +2542,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E47" s="3">
         <v>123700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>137200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>121500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>110400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>90900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>40900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E48" s="3">
         <v>29400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>394300</v>
+      </c>
+      <c r="E54" s="3">
         <v>437700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>476800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>493100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>518000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>396700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>396300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>411900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>213300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>88800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E59" s="3">
         <v>60000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E60" s="3">
         <v>66000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E62" s="3">
         <v>65800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>68200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>67200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>78600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E66" s="3">
         <v>131800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>134500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>119800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>126500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>168100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>48200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-308800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-263400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-220900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-183200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-154400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-128000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-103700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-83800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>266700</v>
+      </c>
+      <c r="E76" s="3">
         <v>305900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>342300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>375200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>398200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>270100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>290300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>307600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-61500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-69800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,22 +4223,23 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
@@ -4052,7 +4251,7 @@
         <v>600</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -4061,7 +4260,7 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>600</v>
@@ -4069,14 +4268,17 @@
       <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>600</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>40000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-124600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>150500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>220400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>119700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-66900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-146200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>106200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>102900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E12" s="3">
         <v>47500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>43100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E17" s="3">
         <v>57100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>15400</v>
       </c>
       <c r="N17" s="3">
         <v>15400</v>
       </c>
       <c r="O17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="P17" s="3">
         <v>13200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-45700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,43 +1312,44 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1326,67 +1360,73 @@
       <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>200</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-44100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-41500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-36900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,46 +1552,49 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-20600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-42500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,43 +1982,46 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -1962,67 +2032,73 @@
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>-200</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-42500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-42500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E41" s="3">
         <v>40600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>147400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>188200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>126400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>265400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,44 +2367,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>296900</v>
+      </c>
+      <c r="E42" s="3">
         <v>255700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>183200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>215200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>196500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>197800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>176700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>161800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,32 +2435,32 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>354900</v>
+      </c>
+      <c r="E46" s="3">
         <v>306800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>280500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>311100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>358400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>396300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>310800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>298400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>364100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,44 +2647,47 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E47" s="3">
         <v>51500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>123700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>137200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>121500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>110400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>90900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E48" s="3">
         <v>30900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>459300</v>
+      </c>
+      <c r="E54" s="3">
         <v>394300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>437700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>476800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>493100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>518000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>396700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>396300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>411900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>213300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,35 +3151,35 @@
         <v>6100</v>
       </c>
       <c r="E57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E59" s="3">
         <v>66500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E60" s="3">
         <v>72700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E62" s="3">
         <v>54900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>68200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>67200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>73000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>78600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E66" s="3">
         <v>127600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>131800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>134500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>119800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>126500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>106700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>168100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>48200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-354500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-308800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-263400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-220900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-183200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-154400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-128000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-103700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-83800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342500</v>
+      </c>
+      <c r="E76" s="3">
         <v>266700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>305900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>342300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>375200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>398200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>270100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>290300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>307600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-61500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-69800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-42500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,25 +4422,26 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -4254,7 +4453,7 @@
         <v>600</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -4263,7 +4462,7 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>600</v>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>600</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>40000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-124600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>150500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>220400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>119700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-37200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-66900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-146200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>106200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>102900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E12" s="3">
         <v>47800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E17" s="3">
         <v>57500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>15400</v>
       </c>
       <c r="O17" s="3">
         <v>15400</v>
       </c>
       <c r="P17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-45700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,46 +1345,47 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
@@ -1363,70 +1396,76 @@
       <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>200</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-44300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-36900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,46 +1600,49 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-20600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,46 +2051,49 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
@@ -2035,70 +2104,76 @@
       <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>-200</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E41" s="3">
         <v>46700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>77900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>147400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>188200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>265400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,47 +2456,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>244700</v>
+      </c>
+      <c r="E42" s="3">
         <v>296900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>255700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>183200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>215200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>196500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>197800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>176700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>161800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,32 +2530,32 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>8200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,47 +2633,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>318400</v>
+      </c>
+      <c r="E46" s="3">
         <v>354900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>306800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>280500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>311100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>358400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>396300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>310800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>298400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>364100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,47 +2751,50 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E47" s="3">
         <v>69100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>51500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>123700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>137200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>121500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>110400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>77200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E48" s="3">
         <v>30300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3046,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>416800</v>
+      </c>
+      <c r="E54" s="3">
         <v>459300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>394300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>437700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>476800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>493100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>518000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>396700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>396300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>411900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>213300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>88800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3271,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>5100</v>
       </c>
       <c r="E57" s="3">
         <v>6100</v>
       </c>
       <c r="F57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,47 +3387,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E59" s="3">
         <v>61400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E60" s="3">
         <v>67500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E62" s="3">
         <v>49300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>68200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>67200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>73000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>78600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E66" s="3">
         <v>116800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>127600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>131800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>134500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>119800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>126500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +4036,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>168100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>48200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-401300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-354500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-308800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-263400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-220900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-183200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-154400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-128000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-103700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>303700</v>
+      </c>
+      <c r="E76" s="3">
         <v>342500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>266700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>305900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>342300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>375200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>398200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>270100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>290300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>307600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-61500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-69800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,28 +4620,29 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -4456,7 +4654,7 @@
         <v>600</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -4465,7 +4663,7 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
@@ -4473,14 +4671,17 @@
       <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>600</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>40000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-124600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-108100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>10000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>115400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>150500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>220400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>119700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E102" s="3">
         <v>6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-66900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-146200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>106200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>102900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E12" s="3">
         <v>46100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>43100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E17" s="3">
         <v>55500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>15400</v>
       </c>
       <c r="P17" s="3">
         <v>15400</v>
       </c>
       <c r="Q17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="R17" s="3">
         <v>13200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-45700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,49 +1379,50 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
@@ -1399,73 +1433,79 @@
       <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>200</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-45100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-44100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,72 +1563,78 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1603,46 +1649,49 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-20600</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-46700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-46700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,49 +2121,52 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
@@ -2107,73 +2177,79 @@
       <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>-200</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-46700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-46700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E41" s="3">
         <v>63600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>147400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>188200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>119200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>265400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,50 +2546,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E42" s="3">
         <v>244700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>296900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>255700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>183200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>215200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>196500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>197800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>176700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>161800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,13 +2608,16 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2533,32 +2626,32 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>8200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E46" s="3">
         <v>318400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>354900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>306800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>280500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>311100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>358400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>396300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>310800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>298400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>364100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>76700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,50 +2856,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E47" s="3">
         <v>63900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>69100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>51500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>123700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>137200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>121500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>110400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E48" s="3">
         <v>29500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3166,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>370200</v>
+      </c>
+      <c r="E54" s="3">
         <v>416800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>459300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>394300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>437700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>476800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>493100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>518000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>396700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>396300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>411900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>213300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>88800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6100</v>
       </c>
       <c r="F57" s="3">
         <v>6100</v>
       </c>
       <c r="G57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E59" s="3">
         <v>65600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E60" s="3">
         <v>70700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E62" s="3">
         <v>42400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>68200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>67200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>73000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E66" s="3">
         <v>113100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>116800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>127600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>131800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>134500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>119800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>106100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>104300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>106700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,14 +4207,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>168100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>48200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-442000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-401300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-354500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-308800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-263400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-220900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-183200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-154400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-128000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-103700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-83800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-72800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E76" s="3">
         <v>303700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>342500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>266700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>305900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>342300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>375200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>398200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>270100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>290300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>307600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-61500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-69800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-46700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,31 +4819,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -4657,7 +4856,7 @@
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -4666,7 +4865,7 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>600</v>
@@ -4674,14 +4873,17 @@
       <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>600</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E94" s="3">
         <v>55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>40000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-124600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-108100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>10000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>115400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>150500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>220400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>119700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E102" s="3">
         <v>16900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-66900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-146200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>106200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>102900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E8" s="3">
         <v>12700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9200</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,61 +986,64 @@
         <v>45800</v>
       </c>
       <c r="E12" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F12" s="3">
         <v>46100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>43100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10400</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E17" s="3">
         <v>55600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>15400</v>
       </c>
       <c r="Q17" s="3">
         <v>15400</v>
       </c>
       <c r="R17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="S17" s="3">
         <v>13200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-45700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,52 +1413,53 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
@@ -1436,76 +1470,82 @@
       <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>200</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-39000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-45100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-44300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-41500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,78 +1606,84 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-42500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1652,46 +1698,49 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-20600</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-42500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-42500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,52 +2191,55 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
@@ -2180,76 +2250,82 @@
       <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>-200</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-42500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-42500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32700</v>
+        <v>59000</v>
       </c>
       <c r="E41" s="3">
-        <v>63600</v>
+        <v>33600</v>
       </c>
       <c r="F41" s="3">
-        <v>46700</v>
+        <v>64500</v>
       </c>
       <c r="G41" s="3">
-        <v>40600</v>
+        <v>47600</v>
       </c>
       <c r="H41" s="3">
-        <v>77900</v>
+        <v>41500</v>
       </c>
       <c r="I41" s="3">
+        <v>78800</v>
+      </c>
+      <c r="J41" s="3">
         <v>80200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>188200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>159200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E42" s="3">
         <v>243600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>244700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>296900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>255700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>183200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>215200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>196500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>197800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>176700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>161800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,16 +2701,19 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2629,32 +2722,32 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>8200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12100</v>
+        <v>8800</v>
       </c>
       <c r="E45" s="3">
-        <v>10200</v>
+        <v>11200</v>
       </c>
       <c r="F45" s="3">
-        <v>11300</v>
+        <v>9300</v>
       </c>
       <c r="G45" s="3">
         <v>10400</v>
       </c>
       <c r="H45" s="3">
-        <v>11200</v>
+        <v>9500</v>
       </c>
       <c r="I45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E46" s="3">
         <v>288300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>318400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>354900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>306800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>280500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>311100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>358400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>396300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>310800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>298400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>364100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>76700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,53 +2961,56 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E47" s="3">
         <v>48400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>63900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>69100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>51500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>123700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>137200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>121500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>110400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E48" s="3">
         <v>28600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,44 +3298,44 @@
         <v>4700</v>
       </c>
       <c r="E52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F52" s="3">
         <v>4900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>350600</v>
+      </c>
+      <c r="E54" s="3">
         <v>370200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>416800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>459300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>394300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>437700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>476800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>493100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>518000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>396700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>396300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>411900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>213300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>88800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6100</v>
       </c>
       <c r="G57" s="3">
         <v>6100</v>
       </c>
       <c r="H57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E59" s="3">
         <v>59200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E60" s="3">
         <v>64900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E62" s="3">
         <v>31200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>68200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>61500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E66" s="3">
         <v>96100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>113100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>116800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>127600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>131800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>134500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>106700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,14 +4378,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>168100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>48200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-466300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-442000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-401300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-354500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-308800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-263400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-220900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-183200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-154400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-128000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-103700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>259900</v>
+      </c>
+      <c r="E76" s="3">
         <v>274100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>303700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>342500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>266700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>305900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>342300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>375200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>398200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>270100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>290300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>307600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-61500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-69800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-42500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,34 +5018,35 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -4859,7 +5058,7 @@
         <v>600</v>
       </c>
       <c r="O83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
@@ -4868,7 +5067,7 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S83" s="3">
         <v>600</v>
@@ -4876,14 +5075,17 @@
       <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>600</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-48500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E94" s="3">
         <v>16100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>55000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>40000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-124600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-108100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>10000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>115400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>150500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>220400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>119700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-66900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-146200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>106200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>102900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>21600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>NRIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E8" s="3">
         <v>30700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9200</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>45800</v>
+        <v>47900</v>
       </c>
       <c r="E12" s="3">
         <v>45800</v>
       </c>
       <c r="F12" s="3">
+        <v>45800</v>
+      </c>
+      <c r="G12" s="3">
         <v>46100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>47500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10400</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E17" s="3">
         <v>57400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>15400</v>
       </c>
       <c r="R17" s="3">
         <v>15400</v>
       </c>
       <c r="S17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="T17" s="3">
         <v>13200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-48700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-45700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,55 +1447,56 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
@@ -1473,79 +1507,85 @@
       <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>200</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-45100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-44100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-41500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,8 +1731,8 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1701,46 +1747,49 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-42500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-42500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,55 +2261,58 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
@@ -2253,79 +2323,85 @@
       <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>-200</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-42500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-42500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2660,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E41" s="3">
         <v>59000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>80200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>188200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>159200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2726,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>216500</v>
+      </c>
+      <c r="E42" s="3">
         <v>222200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>243600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>244700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>296900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>255700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>183200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>215200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>196500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>197800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>176700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>161800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,19 +2794,22 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>2000</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2725,32 +2818,32 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>8200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,56 +2930,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,56 +2998,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E46" s="3">
         <v>290000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>288300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>354900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>280500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>311100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>358400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>396300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>310800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>298400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>364100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>196800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>76700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,56 +3066,59 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E47" s="3">
         <v>27500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>63900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>51500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>123700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>137200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>110400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,56 +3134,59 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E48" s="3">
         <v>28400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3406,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E52" s="3">
         <v>4700</v>
       </c>
       <c r="F52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G52" s="3">
         <v>4900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>308200</v>
+      </c>
+      <c r="E54" s="3">
         <v>350600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>370200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>416800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>459300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>394300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>437700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>476800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>493100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>518000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>396700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>396300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>411900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>213300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>88800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3664,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6100</v>
       </c>
       <c r="H57" s="3">
         <v>6100</v>
       </c>
       <c r="I57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,56 +3798,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E59" s="3">
         <v>67700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,56 +3866,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E60" s="3">
         <v>72300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,56 +4002,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E62" s="3">
         <v>18400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>68200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>67200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>78600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>61500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>80400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4274,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E66" s="3">
         <v>90700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>96100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>113100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>127600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>131800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>134500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>106100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>106700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,14 +4549,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>168100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>48200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4640,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-503200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-466300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-442000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-401300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-354500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-308800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-263400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-220900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-183200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-154400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-128000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-103700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-65300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-72800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4912,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E76" s="3">
         <v>259900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>274100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>303700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>342500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>266700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>305900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>342300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>375200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>398200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>270100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>290300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>307600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-69800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-42500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,37 +5217,38 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
@@ -5061,7 +5260,7 @@
         <v>600</v>
       </c>
       <c r="P83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
@@ -5070,7 +5269,7 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
@@ -5078,14 +5277,17 @@
       <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>600</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-48500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E94" s="3">
         <v>43800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>55000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>40000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-124600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-108100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>10000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>115400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>150500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>220400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>119700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E102" s="3">
         <v>25400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-66900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-146200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>102900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10300</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
